--- a/FinalResults/Ns3/results_ns3.xlsx
+++ b/FinalResults/Ns3/results_ns3.xlsx
@@ -5,33 +5,31 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Silva\Documents\Estágio 18\INESCTEC-FLYINGNETWORKS\DataSet\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Silva\Documents\Estágio 18\INESCTEC-FLYINGNETWORKS\FinalResults\Ns3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FA698D-B878-4BBC-AA17-92EBE448D6F3}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD26B41-767A-4AC5-B0BF-A76E59F75C41}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="1" xr2:uid="{FE193D26-1875-4712-B4F1-85F2BA6EC244}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="4" xr2:uid="{FE193D26-1875-4712-B4F1-85F2BA6EC244}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
-    <sheet name="Folha2" sheetId="2" r:id="rId2"/>
+    <sheet name="Div_Scen" sheetId="2" r:id="rId2"/>
+    <sheet name="Div_Top" sheetId="3" r:id="rId3"/>
+    <sheet name="All_Data" sheetId="4" r:id="rId4"/>
+    <sheet name="Final_results" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
   <si>
     <t>Scenario_Number</t>
   </si>
@@ -87,41 +85,98 @@
     <t>105,0,75,0,75,0,255,0,225,0,165,0</t>
   </si>
   <si>
-    <t>135,0;285,0|15,0;105,0|285,0;75,0|</t>
-  </si>
-  <si>
-    <t>285,0;105,0|135,0;285,0|45,0;105,0|</t>
-  </si>
-  <si>
     <t>135,0;285,0|285,0;105,0|15,0;45,0|</t>
   </si>
   <si>
-    <t>135,0;105,0|135,0;285,0|195,0;135,0|</t>
-  </si>
-  <si>
     <t>165,0;165,0|135,0:135,0|165,0;135,0|</t>
   </si>
   <si>
-    <t>165,0;195,0|135,0;135,0|135,0;105,0|</t>
-  </si>
-  <si>
-    <t>135,0;135,0|165,0;135,0|165,0;135,0|</t>
-  </si>
-  <si>
     <t>135,0;135,0|165,0;165,0|135,0;165,0|</t>
   </si>
   <si>
     <t>165,0;165,0|165,0;165,0|135,0;135,0|</t>
   </si>
   <si>
-    <t>135,0;135,0|135,0;165,0|165,0;165,0|</t>
+    <t>Final Results</t>
+  </si>
+  <si>
+    <t>45,0;135,0|225,0;255,0|195,0;75,0|</t>
+  </si>
+  <si>
+    <t>195,0;75,0|225,0;255,0|45,0;135,0|</t>
+  </si>
+  <si>
+    <t>75,0;45,0|75,0;255,0|225,0;165,0|</t>
+  </si>
+  <si>
+    <t>195,0;105,0|135,0;165,0|225,0;195,0|</t>
+  </si>
+  <si>
+    <t>75,0;105,0|225,0;195,0|225,0;75,0|</t>
+  </si>
+  <si>
+    <t>75,0;165,0|195,0;135,0|135,0;165,0|</t>
+  </si>
+  <si>
+    <t>75,0;255,0|75,0;45,0|225,0;135,0|</t>
+  </si>
+  <si>
+    <t>165,0;165,0|225,0;135,0|45,0;165,0|</t>
+  </si>
+  <si>
+    <t>195,0;255,0|195,0;75,0|45,0;75,0|</t>
+  </si>
+  <si>
+    <t>105,0;135,0|195,0;165,0|255,0;75,0|</t>
+  </si>
+  <si>
+    <t>45,0;45,0|255,0;75,0|135,0;255,0|</t>
+  </si>
+  <si>
+    <t>105,0;195,0|165,0;75,0|225,0;225,0|</t>
+  </si>
+  <si>
+    <t>45,0;255,0|225,0;255,0|165,0;15,0|</t>
+  </si>
+  <si>
+    <t>195,0;105,0|165,0;165,0|255,0;165,0|</t>
+  </si>
+  <si>
+    <t>75,0;105,0|255,0;105,0|135,0;225,0|</t>
+  </si>
+  <si>
+    <t>105,0;105,0|225,0;165,0|105,0;225,0|</t>
+  </si>
+  <si>
+    <t>75,0;225,0|75,0;45,0|225,0;165,0|</t>
+  </si>
+  <si>
+    <t>75,0;135,0|195,0;105,0|165,0;195,0|</t>
+  </si>
+  <si>
+    <t>45,0;75,0|165,0;75,0|195,0;225,0|</t>
+  </si>
+  <si>
+    <t>135,0;135,0|195,0;195,0|195,0;15,0|</t>
+  </si>
+  <si>
+    <t>Model Trained By Division</t>
+  </si>
+  <si>
+    <t>Scenarios</t>
+  </si>
+  <si>
+    <t>Topologies</t>
+  </si>
+  <si>
+    <t>All Data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -144,6 +199,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -153,7 +216,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -161,16 +224,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -486,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C4F20165-66F8-453A-8088-77B91CB660B4}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O2" sqref="O2:Q2"/>
+      <selection activeCell="G17" sqref="G17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -570,16 +666,16 @@
         <v>8</v>
       </c>
       <c r="O3" s="3">
-        <f>(G3-C3)/C3</f>
+        <f>ABS((G3-C3)/C3)</f>
         <v>0.14382217942842299</v>
       </c>
       <c r="P3" s="3">
-        <f>(H3-D3)/D3</f>
+        <f t="shared" ref="P3:Q12" si="0">ABS((H3-D3)/D3)</f>
         <v>0.37631791942273002</v>
       </c>
       <c r="Q3" s="3">
-        <f t="shared" ref="P3:Q12" si="0">(I3-E3)/E3</f>
-        <v>-0.26335382106650318</v>
+        <f t="shared" si="0"/>
+        <v>0.26335382106650318</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -608,16 +704,16 @@
         <v>9</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" ref="O4:O12" si="1">(G4-C4)/C4</f>
+        <f t="shared" ref="O4:O12" si="1">ABS((G4-C4)/C4)</f>
         <v>0.20637540002048749</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="0"/>
-        <v>-0.21240715520968448</v>
+        <v>0.21240715520968448</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="0"/>
-        <v>-0.2003167467867171</v>
+        <v>0.2003167467867171</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -651,7 +747,7 @@
       </c>
       <c r="P5" s="3">
         <f t="shared" si="0"/>
-        <v>-0.26092692006269597</v>
+        <v>0.26092692006269597</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="0"/>
@@ -693,7 +789,7 @@
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="0"/>
-        <v>-5.63797284763514E-2</v>
+        <v>5.63797284763514E-2</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -723,7 +819,7 @@
       </c>
       <c r="O7" s="3">
         <f t="shared" si="1"/>
-        <v>-1.3327008801475691E-2</v>
+        <v>1.3327008801475691E-2</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="0"/>
@@ -731,7 +827,7 @@
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="0"/>
-        <v>-0.22782006073101987</v>
+        <v>0.22782006073101987</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -769,7 +865,7 @@
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="0"/>
-        <v>-0.21750335238038931</v>
+        <v>0.21750335238038931</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -803,11 +899,11 @@
       </c>
       <c r="P9" s="3">
         <f t="shared" si="0"/>
-        <v>-0.15753995487752451</v>
+        <v>0.15753995487752451</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="0"/>
-        <v>-0.1637820303362158</v>
+        <v>0.1637820303362158</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -841,11 +937,11 @@
       </c>
       <c r="P10" s="3">
         <f t="shared" si="0"/>
-        <v>-0.26560346364446707</v>
+        <v>0.26560346364446707</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="0"/>
-        <v>-6.4198176401952757E-3</v>
+        <v>6.4198176401952757E-3</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -875,7 +971,7 @@
       </c>
       <c r="O11" s="3">
         <f t="shared" si="1"/>
-        <v>-1.3834591432620679E-2</v>
+        <v>1.3834591432620679E-2</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="0"/>
@@ -883,7 +979,7 @@
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="0"/>
-        <v>-0.22184152802227511</v>
+        <v>0.22184152802227511</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -921,7 +1017,24 @@
       </c>
       <c r="Q12" s="3">
         <f t="shared" si="0"/>
-        <v>-0.17582475408553183</v>
+        <v>0.17582475408553183</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="3">
+        <f>SUM(O3:O12)/10</f>
+        <v>0.17967809265022722</v>
+      </c>
+      <c r="P14" s="3">
+        <f>SUM(P3:P12)/10</f>
+        <v>0.62744528608731875</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>SUM(Q3:Q12)/10</f>
+        <v>0.16879916361535707</v>
       </c>
     </row>
   </sheetData>
@@ -932,10 +1045,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE1DAF4-3521-4095-92EB-6479CD5FE6B8}">
-  <dimension ref="A1:Q12"/>
+  <dimension ref="A1:Q15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="Q14" sqref="O14:Q14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -994,42 +1107,307 @@
       </c>
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="J3" s="1"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>5.4717419999999999</v>
+      </c>
+      <c r="D5">
+        <v>817</v>
+      </c>
+      <c r="E5">
+        <v>0.66015599999999997</v>
+      </c>
+      <c r="G5">
+        <v>6.996105</v>
+      </c>
+      <c r="H5">
+        <v>434.87853999999999</v>
+      </c>
+      <c r="I5">
+        <v>0.81902050000000004</v>
+      </c>
+      <c r="K5" t="s">
+        <v>18</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" ref="O4:O12" si="0">ABS((G5-C5)/C5)</f>
+        <v>0.27858824484049144</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" ref="P3:Q12" si="1">ABS((H5-D5)/D5)</f>
+        <v>0.46771292533659731</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.24064690770060423</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.1906999999999996</v>
+      </c>
+      <c r="D7">
+        <v>683.33333333333303</v>
+      </c>
+      <c r="E7">
+        <v>0.81491311111111098</v>
+      </c>
+      <c r="G7">
+        <v>4.3258032999999996</v>
+      </c>
+      <c r="H7">
+        <v>290.72894000000002</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.6764133</v>
+      </c>
+      <c r="K7" t="s">
+        <v>19</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="0"/>
+        <v>3.2238838380222859E-2</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.57454301463414614</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1699565379703738</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>5.4535749999999998</v>
+      </c>
+      <c r="D10">
+        <v>942.7</v>
+      </c>
+      <c r="E10">
+        <v>0.73875829999999998</v>
+      </c>
+      <c r="G10">
+        <v>5.3590470000000003</v>
+      </c>
+      <c r="H10">
+        <v>672.41223000000002</v>
+      </c>
+      <c r="I10">
+        <v>0.75247920000000001</v>
+      </c>
+      <c r="K10" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="0"/>
+        <v>1.7333217201560353E-2</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="1"/>
+        <v>0.2867166330752095</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="1"/>
+        <v>1.8572921617259711E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>2.9972650000000001</v>
+      </c>
+      <c r="D11">
+        <v>1047.8</v>
+      </c>
+      <c r="E11">
+        <v>0.64688489999999998</v>
+      </c>
+      <c r="G11">
+        <v>4.7074503999999999</v>
+      </c>
+      <c r="H11">
+        <v>62.626750000000001</v>
+      </c>
+      <c r="I11">
+        <v>0.71508366000000001</v>
+      </c>
+      <c r="K11" t="s">
+        <v>21</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.57058198057228837</v>
+      </c>
+      <c r="P11" s="3">
+        <f>ABS((H11-D11)/D11)</f>
+        <v>0.94023024432143532</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.1054264212999871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="3">
+        <f>MEDIAN(O5,O7,O10,O11)</f>
+        <v>0.15541354161035714</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" ref="P14:Q14" si="2">MEDIAN(P5,P7,P10,P11)</f>
+        <v>0.5211279699853717</v>
+      </c>
+      <c r="Q14" s="3">
+        <f t="shared" si="2"/>
+        <v>0.13769147963518044</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="Q15" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8E22CE-4647-4C08-85DC-139D46736DC1}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14:Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="C3">
-        <v>3.0037699999999998</v>
+        <v>3.058745</v>
       </c>
       <c r="D3">
-        <v>170.2</v>
+        <v>139.6</v>
       </c>
       <c r="E3">
-        <v>0.96318839999999994</v>
+        <v>0.98212719999999898</v>
       </c>
       <c r="G3">
-        <v>3.0737182999999999</v>
+        <v>3.172091</v>
       </c>
       <c r="H3">
-        <v>264.91622999999998</v>
+        <v>121.97371</v>
       </c>
       <c r="I3">
-        <v>0.82127106000000005</v>
+        <v>0.99482422999999998</v>
       </c>
       <c r="J3" s="1"/>
       <c r="K3" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="O3" s="3">
-        <f>(G3-C3)/C3</f>
-        <v>2.3286836209163844E-2</v>
+        <f>ABS((G3-C3)/C3)</f>
+        <v>3.7056374428074239E-2</v>
       </c>
       <c r="P3" s="3">
-        <f t="shared" ref="P3:Q12" si="0">(H3-D3)/D3</f>
-        <v>0.55649958871915395</v>
+        <f t="shared" ref="P3:Q12" si="0">ABS((H3-D3)/D3)</f>
+        <v>0.12626282234957018</v>
       </c>
       <c r="Q3" s="3">
         <f t="shared" si="0"/>
-        <v>-0.14734120552116273</v>
+        <v>1.2928091188189279E-2</v>
       </c>
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.35">
@@ -1037,37 +1415,37 @@
         <v>2</v>
       </c>
       <c r="C4">
-        <v>4.0638889999999996</v>
+        <v>4.3995639999999998</v>
       </c>
       <c r="D4">
-        <v>346.5</v>
+        <v>284.10000000000002</v>
       </c>
       <c r="E4">
-        <v>0.88687959999999999</v>
+        <v>0.9119929</v>
       </c>
       <c r="G4">
-        <v>4.3420290000000001</v>
+        <v>4.6627609999999997</v>
       </c>
       <c r="H4">
-        <v>237.07744</v>
+        <v>139.90369999999999</v>
       </c>
       <c r="I4">
-        <v>0.76886182999999997</v>
+        <v>0.96982500000000005</v>
       </c>
       <c r="K4" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="O4" s="3">
-        <f t="shared" ref="O4:O12" si="1">(G4-C4)/C4</f>
-        <v>6.8441829981084751E-2</v>
+        <f t="shared" ref="O4:O12" si="1">ABS((G4-C4)/C4)</f>
+        <v>5.9823427957861261E-2</v>
       </c>
       <c r="P4" s="3">
         <f t="shared" si="0"/>
-        <v>-0.31579382395382399</v>
+        <v>0.50755473424850417</v>
       </c>
       <c r="Q4" s="3">
         <f t="shared" si="0"/>
-        <v>-0.13307079111978676</v>
+        <v>6.3412884025741925E-2</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.35">
@@ -1075,37 +1453,37 @@
         <v>3</v>
       </c>
       <c r="C5">
-        <v>5.4717419999999999</v>
+        <v>5.4509049999999997</v>
       </c>
       <c r="D5">
-        <v>817</v>
+        <v>620</v>
       </c>
       <c r="E5">
-        <v>0.66015599999999997</v>
+        <v>0.69603440000000005</v>
       </c>
       <c r="G5">
-        <v>6.996105</v>
+        <v>5.977684</v>
       </c>
       <c r="H5">
-        <v>434.87853999999999</v>
+        <v>512.93633999999997</v>
       </c>
       <c r="I5">
-        <v>0.81902050000000004</v>
+        <v>0.72698940000000001</v>
       </c>
       <c r="K5" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="O5" s="3">
         <f t="shared" si="1"/>
-        <v>0.27858824484049144</v>
+        <v>9.6640649580207391E-2</v>
       </c>
       <c r="P5" s="3">
         <f t="shared" si="0"/>
-        <v>-0.46771292533659731</v>
+        <v>0.1726833225806452</v>
       </c>
       <c r="Q5" s="3">
         <f t="shared" si="0"/>
-        <v>0.24064690770060423</v>
+        <v>4.4473376603225291E-2</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.35">
@@ -1113,37 +1491,37 @@
         <v>4</v>
       </c>
       <c r="C6">
-        <v>5.6174979999999897</v>
+        <v>5.5739669999999997</v>
       </c>
       <c r="D6">
-        <v>714.3</v>
+        <v>676.8</v>
       </c>
       <c r="E6">
-        <v>0.70148519999999903</v>
+        <v>0.70052389999999998</v>
       </c>
       <c r="G6">
-        <v>5.0547743000000001</v>
+        <v>7.4302216000000003</v>
       </c>
       <c r="H6">
-        <v>354.36502000000002</v>
+        <v>279.79149999999998</v>
       </c>
       <c r="I6">
-        <v>0.82701069999999999</v>
+        <v>0.78124260000000001</v>
       </c>
       <c r="K6" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O6" s="3">
         <f t="shared" si="1"/>
-        <v>-0.10017336899808253</v>
+        <v>0.33302217253887595</v>
       </c>
       <c r="P6" s="3">
         <f t="shared" si="0"/>
-        <v>-0.50389889402211951</v>
+        <v>0.58659648345153659</v>
       </c>
       <c r="Q6" s="3">
         <f t="shared" si="0"/>
-        <v>0.17894247804515495</v>
+        <v>0.11522618999865678</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.35">
@@ -1151,37 +1529,37 @@
         <v>5</v>
       </c>
       <c r="C7" s="2">
-        <v>4.1906999999999996</v>
+        <v>4.5726800000000001</v>
       </c>
       <c r="D7">
-        <v>683.33333333333303</v>
+        <v>484</v>
       </c>
       <c r="E7">
-        <v>0.81491311111111098</v>
+        <v>0.88716859999999997</v>
       </c>
       <c r="G7">
-        <v>4.3258032999999996</v>
+        <v>5.1582226999999996</v>
       </c>
       <c r="H7">
-        <v>290.72894000000002</v>
+        <v>25.590820000000001</v>
       </c>
       <c r="I7" s="2">
-        <v>0.6764133</v>
+        <v>1</v>
       </c>
       <c r="K7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="O7" s="3">
         <f t="shared" si="1"/>
-        <v>3.2238838380222859E-2</v>
+        <v>0.12805241127741271</v>
       </c>
       <c r="P7" s="3">
         <f t="shared" si="0"/>
-        <v>-0.57454301463414614</v>
+        <v>0.94712640495867761</v>
       </c>
       <c r="Q7" s="3">
         <f t="shared" si="0"/>
-        <v>-0.1699565379703738</v>
+        <v>0.12718146246384288</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.35">
@@ -1189,37 +1567,37 @@
         <v>6</v>
       </c>
       <c r="C8">
-        <v>4.7287289999999897</v>
+        <v>4.7090040000000002</v>
       </c>
       <c r="D8">
-        <v>291.5</v>
+        <v>370.6</v>
       </c>
       <c r="E8">
-        <v>0.91456459999999995</v>
+        <v>0.92185640000000002</v>
       </c>
       <c r="G8">
-        <v>4.2624725999999997</v>
+        <v>5.1489659999999997</v>
       </c>
       <c r="H8">
-        <v>479.36806999999999</v>
+        <v>232.31227000000001</v>
       </c>
       <c r="I8">
-        <v>0.72260610000000003</v>
+        <v>0.96163940000000003</v>
       </c>
       <c r="K8" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O8" s="3">
         <f t="shared" si="1"/>
-        <v>-9.860078680761597E-2</v>
+        <v>9.3429948243832342E-2</v>
       </c>
       <c r="P8" s="3">
         <f t="shared" si="0"/>
-        <v>0.64448737564322467</v>
+        <v>0.37314552077711821</v>
       </c>
       <c r="Q8" s="3">
         <f t="shared" si="0"/>
-        <v>-0.20989058618713202</v>
+        <v>4.3155311391231882E-2</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.35">
@@ -1227,37 +1605,37 @@
         <v>7</v>
       </c>
       <c r="C9">
-        <v>3.1043239999999899</v>
+        <v>6.4350430000000003</v>
       </c>
       <c r="D9" s="2">
-        <v>1074.4000000000001</v>
+        <v>554</v>
       </c>
       <c r="E9">
-        <v>0.4704834</v>
+        <v>0.74774469999999904</v>
       </c>
       <c r="G9">
-        <v>5.6644363000000002</v>
+        <v>8.7832810000000006</v>
       </c>
       <c r="H9">
-        <v>235.89975000000001</v>
+        <v>476.30988000000002</v>
       </c>
       <c r="I9">
-        <v>0.82134414</v>
+        <v>0.90564084</v>
       </c>
       <c r="K9" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="O9" s="3">
         <f t="shared" si="1"/>
-        <v>0.82469236458566142</v>
+        <v>0.36491411168503463</v>
       </c>
       <c r="P9" s="3">
         <f t="shared" si="0"/>
-        <v>-0.78043582464631422</v>
+        <v>0.14023487364620935</v>
       </c>
       <c r="Q9" s="3">
         <f t="shared" si="0"/>
-        <v>0.74574520588824178</v>
+        <v>0.21116316839156621</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.35">
@@ -1265,37 +1643,37 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>5.4535749999999998</v>
+        <v>5.5820229999999897</v>
       </c>
       <c r="D10">
-        <v>942.7</v>
+        <v>595.79999999999995</v>
       </c>
       <c r="E10">
-        <v>0.73875829999999998</v>
+        <v>0.81187089999999995</v>
       </c>
       <c r="G10">
-        <v>5.3590470000000003</v>
+        <v>6.4479474999999997</v>
       </c>
       <c r="H10">
-        <v>672.41223000000002</v>
+        <v>312.3734</v>
       </c>
       <c r="I10">
-        <v>0.75247920000000001</v>
+        <v>0.96542490000000003</v>
       </c>
       <c r="K10" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="O10" s="3">
         <f t="shared" si="1"/>
-        <v>-1.7333217201560353E-2</v>
+        <v>0.15512736153183382</v>
       </c>
       <c r="P10" s="3">
         <f t="shared" si="0"/>
-        <v>-0.2867166330752095</v>
+        <v>0.47570762000671363</v>
       </c>
       <c r="Q10" s="3">
         <f t="shared" si="0"/>
-        <v>1.8572921617259711E-2</v>
+        <v>0.18913598208779264</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.35">
@@ -1303,37 +1681,37 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>2.9972650000000001</v>
+        <v>4.9511029999999998</v>
       </c>
       <c r="D11">
-        <v>1047.8</v>
+        <v>455.4</v>
       </c>
       <c r="E11">
-        <v>0.64688489999999998</v>
+        <v>0.85023389999999999</v>
       </c>
       <c r="G11">
-        <v>4.7074503999999999</v>
+        <v>5.4019794000000001</v>
       </c>
       <c r="H11">
-        <v>62.626750000000001</v>
+        <v>160.60767999999999</v>
       </c>
       <c r="I11">
-        <v>0.71508366000000001</v>
+        <v>0.96435725999999999</v>
       </c>
       <c r="K11" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="O11" s="3">
         <f t="shared" si="1"/>
-        <v>0.57058198057228837</v>
+        <v>9.1065849367302665E-2</v>
       </c>
       <c r="P11" s="3">
         <f t="shared" si="0"/>
-        <v>-0.94023024432143532</v>
+        <v>0.64732613087395707</v>
       </c>
       <c r="Q11" s="3">
         <f t="shared" si="0"/>
-        <v>0.1054264212999871</v>
+        <v>0.13422584067748888</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.35">
@@ -1341,40 +1719,645 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>4.4238977777777704</v>
+        <v>3.7911355555555502</v>
       </c>
       <c r="D12">
-        <v>584.33333333333303</v>
+        <v>853.5</v>
       </c>
       <c r="E12">
-        <v>0.77470677777777697</v>
+        <v>0.70802389999999904</v>
       </c>
       <c r="G12">
-        <v>5.2027919999999996</v>
+        <v>6.1337232999999998</v>
       </c>
       <c r="H12">
-        <v>296.96575999999999</v>
+        <v>171.51694000000001</v>
       </c>
       <c r="I12">
-        <v>0.69313157000000003</v>
+        <v>0.90490979999999999</v>
       </c>
       <c r="K12" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="O12" s="3">
         <f t="shared" si="1"/>
-        <v>0.17606514918468266</v>
+        <v>0.61791189212730979</v>
       </c>
       <c r="P12" s="3">
         <f t="shared" si="0"/>
-        <v>-0.49178706217912127</v>
+        <v>0.79904283538371412</v>
       </c>
       <c r="Q12" s="3">
         <f t="shared" si="0"/>
-        <v>-0.10529817231207524</v>
+        <v>0.27807804228077782</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="3">
+        <f>SUM(O3:O12)/10</f>
+        <v>0.19770441987377446</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" ref="P14" si="2">SUM(P3:P12)/10</f>
+        <v>0.47756807482766456</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>SUM(Q3:Q12)/10</f>
+        <v>0.12189803491085134</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344ED47F-5FDB-4164-AF2E-62EFC5CC18C3}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O14" sqref="O14:Q14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C2" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" t="s">
+        <v>3</v>
+      </c>
+      <c r="G2" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" t="s">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>3.01565857142857</v>
+      </c>
+      <c r="D3">
+        <v>196.28571428571399</v>
+      </c>
+      <c r="E3">
+        <v>0.97323442857142795</v>
+      </c>
+      <c r="G3">
+        <v>3.2453303</v>
+      </c>
+      <c r="H3">
+        <v>173.76365999999999</v>
+      </c>
+      <c r="I3">
+        <v>0.97223110000000001</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" t="s">
+        <v>33</v>
+      </c>
+      <c r="O3" s="3">
+        <f>ABS((G3-C3)/C3)</f>
+        <v>7.6159725357314093E-2</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:Q12" si="0">ABS((H3-D3)/D3)</f>
+        <v>0.11474117903930006</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" si="0"/>
+        <v>1.0309217820219088E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>4.488035</v>
+      </c>
+      <c r="D4">
+        <v>445.9</v>
+      </c>
+      <c r="E4">
+        <v>0.89036289999999996</v>
+      </c>
+      <c r="G4">
+        <v>4.8758920000000003</v>
+      </c>
+      <c r="H4">
+        <v>336.32186999999999</v>
+      </c>
+      <c r="I4">
+        <v>0.92279719999999998</v>
+      </c>
+      <c r="K4" t="s">
+        <v>34</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O12" si="1">ABS((G4-C4)/C4)</f>
+        <v>8.6420226223726054E-2</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" si="0"/>
+        <v>0.24574597443372953</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" si="0"/>
+        <v>3.642818001513768E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>5.8320569999999998</v>
+      </c>
+      <c r="D5">
+        <v>851.5</v>
+      </c>
+      <c r="E5">
+        <v>0.69498729999999997</v>
+      </c>
+      <c r="G5">
+        <v>6.1003970000000001</v>
+      </c>
+      <c r="H5">
+        <v>730.00385000000006</v>
+      </c>
+      <c r="I5">
+        <v>0.68105510000000002</v>
+      </c>
+      <c r="K5" t="s">
+        <v>35</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="1"/>
+        <v>4.6011210109914949E-2</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="0"/>
+        <v>0.14268485026423952</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="0"/>
+        <v>2.0046697256194394E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>3.2771520000000001</v>
+      </c>
+      <c r="D6">
+        <v>1535.9</v>
+      </c>
+      <c r="E6">
+        <v>0.48194140000000002</v>
+      </c>
+      <c r="G6">
+        <v>8.1189689999999999</v>
+      </c>
+      <c r="H6">
+        <v>575.40233999999998</v>
+      </c>
+      <c r="I6">
+        <v>0.88343249999999995</v>
+      </c>
+      <c r="K6" t="s">
+        <v>36</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="1"/>
+        <v>1.4774465755631718</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.62536471124422166</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="0"/>
+        <v>0.8330703691361645</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <v>4.5310709999999998</v>
+      </c>
+      <c r="D7">
+        <v>380.5</v>
+      </c>
+      <c r="E7">
+        <v>0.91867100000000002</v>
+      </c>
+      <c r="G7">
+        <v>5.6378709999999996</v>
+      </c>
+      <c r="H7">
+        <v>206.9761</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0.96828840000000005</v>
+      </c>
+      <c r="K7" t="s">
+        <v>37</v>
+      </c>
+      <c r="O7" s="3">
+        <f t="shared" si="1"/>
+        <v>0.24426895981104685</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45604178712220761</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="0"/>
+        <v>5.4009977456565009E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>4.2533159999999999</v>
+      </c>
+      <c r="D8">
+        <v>308.5</v>
+      </c>
+      <c r="E8">
+        <v>0.89098569999999999</v>
+      </c>
+      <c r="G8">
+        <v>5.0625090000000004</v>
+      </c>
+      <c r="H8">
+        <v>225.03613000000001</v>
+      </c>
+      <c r="I8">
+        <v>1</v>
+      </c>
+      <c r="K8" t="s">
+        <v>38</v>
+      </c>
+      <c r="O8" s="3">
+        <f t="shared" si="1"/>
+        <v>0.19024991324416068</v>
+      </c>
+      <c r="P8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.27054739059967581</v>
+      </c>
+      <c r="Q8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.122352468732102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <v>6.0400960000000001</v>
+      </c>
+      <c r="D9" s="2">
+        <v>551.70000000000005</v>
+      </c>
+      <c r="E9">
+        <v>0.72546169999999999</v>
+      </c>
+      <c r="G9">
+        <v>8.8234220000000008</v>
+      </c>
+      <c r="H9">
+        <v>458.36099999999999</v>
+      </c>
+      <c r="I9">
+        <v>0.96211564999999999</v>
+      </c>
+      <c r="K9" t="s">
+        <v>39</v>
+      </c>
+      <c r="O9" s="3">
+        <f t="shared" si="1"/>
+        <v>0.46080823880944949</v>
+      </c>
+      <c r="P9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16918433931484511</v>
+      </c>
+      <c r="Q9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.32621150089660145</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="C10">
+        <v>5.6854009999999997</v>
+      </c>
+      <c r="D10">
+        <v>755.1</v>
+      </c>
+      <c r="E10">
+        <v>0.80259049999999998</v>
+      </c>
+      <c r="G10">
+        <v>6.0727599999999997</v>
+      </c>
+      <c r="H10">
+        <v>414.51787999999999</v>
+      </c>
+      <c r="I10">
+        <v>0.86245930000000004</v>
+      </c>
+      <c r="K10" t="s">
+        <v>40</v>
+      </c>
+      <c r="O10" s="3">
+        <f t="shared" si="1"/>
+        <v>6.8132221456322958E-2</v>
+      </c>
+      <c r="P10" s="3">
+        <f t="shared" si="0"/>
+        <v>0.45104240497947296</v>
+      </c>
+      <c r="Q10" s="3">
+        <f t="shared" si="0"/>
+        <v>7.4594453834178273E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="C11">
+        <v>5.0553629999999998</v>
+      </c>
+      <c r="D11">
+        <v>425.4</v>
+      </c>
+      <c r="E11">
+        <v>0.85470749999999995</v>
+      </c>
+      <c r="G11">
+        <v>5.9012729999999998</v>
+      </c>
+      <c r="H11">
+        <v>288.46652</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="K11" t="s">
+        <v>41</v>
+      </c>
+      <c r="O11" s="3">
+        <f t="shared" si="1"/>
+        <v>0.16732923036387298</v>
+      </c>
+      <c r="P11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.32189346497414195</v>
+      </c>
+      <c r="Q11" s="3">
+        <f t="shared" si="0"/>
+        <v>0.16999090332072675</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="C12">
+        <v>3.7197339999999999</v>
+      </c>
+      <c r="D12">
+        <v>1088.5</v>
+      </c>
+      <c r="E12">
+        <v>0.68668479999999998</v>
+      </c>
+      <c r="G12">
+        <v>5.8368460000000004</v>
+      </c>
+      <c r="H12">
+        <v>228.05996999999999</v>
+      </c>
+      <c r="I12">
+        <v>0.96169459999999996</v>
+      </c>
+      <c r="K12" t="s">
+        <v>42</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="1"/>
+        <v>0.56915682680535773</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.79048234267340378</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="0"/>
+        <v>0.4004891327141652</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="M14" t="s">
+        <v>22</v>
+      </c>
+      <c r="O14" s="3">
+        <f>SUM(O3:O12)/10</f>
+        <v>0.33859831277443375</v>
+      </c>
+      <c r="P14" s="3">
+        <f t="shared" ref="P14" si="2">SUM(P3:P12)/10</f>
+        <v>0.35877284446452384</v>
+      </c>
+      <c r="Q14" s="3">
+        <f>SUM(Q3:Q12)/10</f>
+        <v>0.20382246051438574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06100B4A-5E74-4D15-86F5-B1B278823547}">
+  <dimension ref="A1:L4"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="22.90625" customWidth="1"/>
+    <col min="2" max="2" width="12.54296875" customWidth="1"/>
+    <col min="3" max="3" width="14.81640625" customWidth="1"/>
+    <col min="4" max="4" width="7.54296875" customWidth="1"/>
+    <col min="5" max="5" width="8.7265625" customWidth="1"/>
+    <col min="6" max="6" width="12.26953125" customWidth="1"/>
+    <col min="7" max="7" width="11.1796875" customWidth="1"/>
+    <col min="8" max="8" width="8.90625" customWidth="1"/>
+    <col min="9" max="9" width="8.7265625" customWidth="1"/>
+    <col min="10" max="10" width="11.36328125" customWidth="1"/>
+    <col min="11" max="11" width="10.1796875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" s="7"/>
+      <c r="E1" s="7"/>
+      <c r="F1" s="7"/>
+      <c r="G1" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H1" s="7"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="7"/>
+      <c r="K1" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="L1" s="5"/>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A3" s="5"/>
+      <c r="B3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>3</v>
+      </c>
+      <c r="I3" s="8"/>
+      <c r="J3" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A4" s="6"/>
+      <c r="B4" s="9">
+        <v>0.15541354161035714</v>
+      </c>
+      <c r="C4" s="9">
+        <v>0.5211279699853717</v>
+      </c>
+      <c r="D4" s="9">
+        <v>0.13769147963518044</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="11">
+        <v>0.19770441987377446</v>
+      </c>
+      <c r="G4" s="11">
+        <v>0.47756807482766456</v>
+      </c>
+      <c r="H4" s="11">
+        <v>0.12189803491085134</v>
+      </c>
+      <c r="I4" s="10"/>
+      <c r="J4" s="11">
+        <v>0.33859831277443375</v>
+      </c>
+      <c r="K4" s="11">
+        <v>0.35877284446452384</v>
+      </c>
+      <c r="L4" s="11">
+        <v>0.20382246051438574</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/FinalResults/Ns3/results_ns3.xlsx
+++ b/FinalResults/Ns3/results_ns3.xlsx
@@ -1,25 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro Silva\Documents\Estágio 18\INESCTEC-FLYINGNETWORKS\FinalResults\Ns3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBD26B41-767A-4AC5-B0BF-A76E59F75C41}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D866D36-8C15-4F65-86C6-79A3F42173F4}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="4" xr2:uid="{FE193D26-1875-4712-B4F1-85F2BA6EC244}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6960" activeTab="2" xr2:uid="{FE193D26-1875-4712-B4F1-85F2BA6EC244}"/>
   </bookViews>
   <sheets>
     <sheet name="Folha1" sheetId="1" r:id="rId1"/>
     <sheet name="Div_Scen" sheetId="2" r:id="rId2"/>
-    <sheet name="Div_Top" sheetId="3" r:id="rId3"/>
-    <sheet name="All_Data" sheetId="4" r:id="rId4"/>
-    <sheet name="Final_results" sheetId="5" r:id="rId5"/>
+    <sheet name="Div_Scenar2" sheetId="6" r:id="rId3"/>
+    <sheet name="Div_Top" sheetId="3" r:id="rId4"/>
+    <sheet name="All_Data" sheetId="4" r:id="rId5"/>
+    <sheet name="Final_results" sheetId="5" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="179017"/>
+  <calcPr calcId="179021"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -29,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="51">
   <si>
     <t>Scenario_Number</t>
   </si>
@@ -170,6 +171,18 @@
   </si>
   <si>
     <t>All Data</t>
+  </si>
+  <si>
+    <t>75,0;255,0|165,0;165,0|255,0;75,0|</t>
+  </si>
+  <si>
+    <t>45,0;105,0|135,0;225,0|225,0;105,0|</t>
+  </si>
+  <si>
+    <t>165,0;225,0|195,0;105,0|75,0;135,0|</t>
+  </si>
+  <si>
+    <t>225,0;165,0|15,0;225,0|135,0;105,0|</t>
   </si>
 </sst>
 </file>
@@ -244,7 +257,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -266,6 +279,9 @@
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1048,7 +1064,7 @@
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="Q14" sqref="O14:Q14"/>
+      <selection activeCell="P14" sqref="P14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1143,11 +1159,11 @@
         <v>18</v>
       </c>
       <c r="O5" s="3">
-        <f t="shared" ref="O4:O12" si="0">ABS((G5-C5)/C5)</f>
+        <f t="shared" ref="O5:O11" si="0">ABS((G5-C5)/C5)</f>
         <v>0.27858824484049144</v>
       </c>
       <c r="P5" s="3">
-        <f t="shared" ref="P3:Q12" si="1">ABS((H5-D5)/D5)</f>
+        <f t="shared" ref="P5:Q11" si="1">ABS((H5-D5)/D5)</f>
         <v>0.46771292533659731</v>
       </c>
       <c r="Q5" s="3">
@@ -1295,11 +1311,11 @@
         <v>22</v>
       </c>
       <c r="O14" s="3">
-        <f>MEDIAN(O5,O7,O10,O11)</f>
+        <f t="shared" ref="O14:Q14" si="2">MEDIAN(O5,O7,O10,O11)</f>
         <v>0.15541354161035714</v>
       </c>
       <c r="P14" s="3">
-        <f t="shared" ref="P14:Q14" si="2">MEDIAN(P5,P7,P10,P11)</f>
+        <f t="shared" si="2"/>
         <v>0.5211279699853717</v>
       </c>
       <c r="Q14" s="3">
@@ -1316,11 +1332,286 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2535CD83-3381-4E78-B28B-5CCAE110F195}">
+  <dimension ref="A1:Q14"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="7" max="7" width="11" customWidth="1"/>
+    <col min="15" max="15" width="11.54296875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>1</v>
+      </c>
+      <c r="H1" t="s">
+        <v>5</v>
+      </c>
+      <c r="L1" t="s">
+        <v>6</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="H2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="I2" s="12" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="12"/>
+      <c r="N2" s="12"/>
+      <c r="O2" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="P2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q2" s="12" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>5.0289349999999997</v>
+      </c>
+      <c r="D3">
+        <v>768</v>
+      </c>
+      <c r="E3">
+        <v>0.655599499999999</v>
+      </c>
+      <c r="G3">
+        <v>11.080862</v>
+      </c>
+      <c r="H3">
+        <v>341.84514999999999</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" t="s">
+        <v>47</v>
+      </c>
+      <c r="O3" s="3">
+        <f>ABS((G3-C3)/C3)</f>
+        <v>1.2034212015068797</v>
+      </c>
+      <c r="P3" s="3">
+        <f t="shared" ref="P3:Q3" si="0">ABS((H3-D3)/D3)</f>
+        <v>0.55488912760416664</v>
+      </c>
+      <c r="Q3" s="3">
+        <f t="shared" si="0"/>
+        <v>0.52532148056855066</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>5</v>
+      </c>
+      <c r="C4">
+        <v>4.7441709999999997</v>
+      </c>
+      <c r="D4">
+        <v>329.3</v>
+      </c>
+      <c r="E4">
+        <v>0.93551589999999996</v>
+      </c>
+      <c r="G4">
+        <v>6.0140786000000004</v>
+      </c>
+      <c r="H4">
+        <v>75.580699999999993</v>
+      </c>
+      <c r="I4">
+        <v>0.73643804000000002</v>
+      </c>
+      <c r="K4" t="s">
+        <v>48</v>
+      </c>
+      <c r="O4" s="3">
+        <f t="shared" ref="O4:O6" si="1">ABS((G4-C4)/C4)</f>
+        <v>0.26767745091819006</v>
+      </c>
+      <c r="P4" s="3">
+        <f t="shared" ref="P4:P6" si="2">ABS((H4-D4)/D4)</f>
+        <v>0.77048071667172802</v>
+      </c>
+      <c r="Q4" s="3">
+        <f t="shared" ref="Q4:Q6" si="3">ABS((I4-E4)/E4)</f>
+        <v>0.21280008175168369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>5.4231579999999902</v>
+      </c>
+      <c r="D5">
+        <v>752.7</v>
+      </c>
+      <c r="E5">
+        <v>0.77541079999999996</v>
+      </c>
+      <c r="G5">
+        <v>6.2148709999999996</v>
+      </c>
+      <c r="H5">
+        <v>34.597639999999998</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="K5" t="s">
+        <v>49</v>
+      </c>
+      <c r="O5" s="3">
+        <f t="shared" si="1"/>
+        <v>0.14598744864154997</v>
+      </c>
+      <c r="P5" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95403528630264389</v>
+      </c>
+      <c r="Q5" s="3">
+        <f t="shared" si="3"/>
+        <v>0.28963898877859329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>4.1742629999999998</v>
+      </c>
+      <c r="D6">
+        <v>617.9</v>
+      </c>
+      <c r="E6">
+        <v>0.78876539999999995</v>
+      </c>
+      <c r="G6">
+        <v>7.1816560000000003</v>
+      </c>
+      <c r="H6">
+        <v>314.09464000000003</v>
+      </c>
+      <c r="I6">
+        <v>0.79170894999999997</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="O6" s="3">
+        <f t="shared" si="1"/>
+        <v>0.7204608334453293</v>
+      </c>
+      <c r="P6" s="3">
+        <f t="shared" si="2"/>
+        <v>0.4916739925554296</v>
+      </c>
+      <c r="Q6" s="3">
+        <f t="shared" si="3"/>
+        <v>3.7318447284832943E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="C7" s="2"/>
+      <c r="I7" s="2"/>
+      <c r="M7" t="s">
+        <v>22</v>
+      </c>
+      <c r="O7" s="3">
+        <f>MEDIAN(O3:O6)</f>
+        <v>0.49406914218175968</v>
+      </c>
+      <c r="P7" s="3">
+        <f t="shared" ref="P7:Q7" si="4">MEDIAN(P3:P6)</f>
+        <v>0.66268492213794739</v>
+      </c>
+      <c r="Q7" s="3">
+        <f t="shared" si="4"/>
+        <v>0.25121953526513852</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O8" s="3"/>
+      <c r="P8" s="3"/>
+      <c r="Q8" s="3"/>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="D9" s="2"/>
+      <c r="O9" s="3"/>
+      <c r="P9" s="3"/>
+      <c r="Q9" s="3"/>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+      <c r="O14" s="3"/>
+      <c r="P14" s="3"/>
+      <c r="Q14" s="3"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E8E22CE-4647-4C08-85DC-139D46736DC1}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O14" sqref="O14:Q14"/>
+      <selection activeCell="O14" sqref="O14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1774,7 +2065,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{344ED47F-5FDB-4164-AF2E-62EFC5CC18C3}">
   <dimension ref="A1:Q14"/>
   <sheetViews>
@@ -2233,11 +2524,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06100B4A-5E74-4D15-86F5-B1B278823547}">
   <dimension ref="A1:L4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
